--- a/data/trans_camb/P25A_5_R2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P25A_5_R2-Estudios-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,50 +541,68 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>M3/M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>M3/M2</t>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,36</t>
+          <t>-1,04</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,5</t>
+          <t>-1,05</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,16</t>
+          <t>-1,43</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-2,45</t>
+          <t>-4,32</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,64</t>
+          <t>-2,82</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,15</t>
+          <t>7,07</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-2,74</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-1,99</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>3,41</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 1,92</t>
+          <t>-12,3; 4,63</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 7,66</t>
+          <t>-12,22; 4,76</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,41; 4,99</t>
+          <t>-14,22; 3,24</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,78; 4,48</t>
+          <t>-17,19; 7,53</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 3,08</t>
+          <t>-16,33; 9,14</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 4,12</t>
+          <t>-8,97; 32,94</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-11,33; 5,67</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-10,98; 5,93</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-6,54; 25,41</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-28,9%</t>
+          <t>-34,75%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>201,17%</t>
+          <t>-35,09%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-19,12%</t>
+          <t>-47,88%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-40,44%</t>
+          <t>-41,12%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-16,81%</t>
+          <t>-26,78%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-3,87%</t>
+          <t>67,25%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-39,69%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-28,78%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>49,35%</t>
         </is>
       </c>
     </row>
@@ -725,22 +801,37 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-80,55; 167,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-87,75; 290,37</t>
+          <t>-100,0; 580,21</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-75,96; 205,07</t>
+          <t>-100,0; 339,74</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-71,32; 217,05</t>
+          <t>-80,03; 1046,0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 332,12</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-91,23; 285,27</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-76,14; 1215,17</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,65</t>
+          <t>-0,81</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,33</t>
+          <t>-0,81</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,07</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,63</t>
+          <t>-0,61</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,49</t>
+          <t>1,92</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-0,71</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-0,3</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1,1</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 0,22</t>
+          <t>-4,04; 0,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 1,3</t>
+          <t>-4,04; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 6,26</t>
+          <t>-2,14; 2,56</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 0,95</t>
+          <t>-2,7; 0,96</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 2,42</t>
+          <t>-1,9; 2,33</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 0,66</t>
+          <t>-0,65; 4,76</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-2,3; 0,23</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-1,98; 0,82</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-0,7; 2,95</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-74,83%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-37,96%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>67,78%</t>
+          <t>41,14%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-39,98%</t>
+          <t>-55,87%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>11,86%</t>
+          <t>24,2%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-39,92%</t>
+          <t>176,34%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-74,7%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-31,42%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>115,27%</t>
         </is>
       </c>
     </row>
@@ -881,22 +1017,37 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-68,05; 1022,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 167,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-73,16; 484,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-89,71; 156,77</t>
+          <t>-99,31; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-65,81; 1052,13</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>4,08</t>
+          <t>1,37</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,06</t>
+          <t>7,29</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3,09</t>
+          <t>1,9</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,47</t>
+          <t>3,43</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>3,56</t>
+          <t>2,85</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,35</t>
+          <t>1,67</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2,51</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>4,9</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1,8</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,79; 11,43</t>
+          <t>-1,82; 4,93</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 3,79</t>
+          <t>2,36; 17,2</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,58; 6,7</t>
+          <t>-0,92; 9,18</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,03; 7,0</t>
+          <t>1,17; 8,87</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,28; 6,39</t>
+          <t>0,59; 8,08</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,58; 4,69</t>
+          <t>0,42; 4,74</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0,61; 5,35</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>2,25; 9,85</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0,03; 4,73</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>394,03%</t>
+          <t>148,91%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>102,61%</t>
+          <t>795,05%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>369,61%</t>
+          <t>206,7%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>414,59%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>384,0%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>253,01%</t>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>627,01%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>1220,6%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>449,6%</t>
         </is>
       </c>
     </row>
@@ -1027,7 +1223,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-34,77; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1037,29 +1233,44 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-32,65; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-9,29; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>44,36; 1945,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>12,78; 1400,05</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,82</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,39</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,09</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 2,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 1,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 4,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 2,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 2,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 1,68</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>83,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>55,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>65,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>21,63%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>68,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>31,26%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-49,86; 611,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-57,55; 556,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-20,75; 299,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-44,89; 171,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-7,19; 222,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-26,16; 145,61</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-0,05</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>1,98</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0,61</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>0,56</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0,97</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>3,42</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0,26</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>1,45</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>2,04</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-1,9; 1,33</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-0,05; 5,27</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-1,24; 3,03</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-1,8; 3,31</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-1,43; 3,66</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0,16; 12,08</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-1,4; 1,69</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-0,39; 3,46</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-0,02; 5,87</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-4,43%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>170,24%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>52,55%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>29,24%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>50,71%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>178,7%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>16,54%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>92,25%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>130,12%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-43,31; 1442,43</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-82,57; —</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-68,62; 363,31</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-62,01; 373,93</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-31,56; 1013,38</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-65,53; 169,34</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-29,81; 325,02</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-26,76; 489,05</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
